--- a/results/scores-4-factors.xlsx
+++ b/results/scores-4-factors.xlsx
@@ -360,1045 +360,1045 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>V1</t>
+          <t>MRFA1</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>MRFA3</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>MRFA4</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>MRFA2</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.3186470198253036</v>
+        <v>0.9219065881315854</v>
       </c>
       <c r="B2">
-        <v>0.9151776002588707</v>
+        <v>0.4155395341394991</v>
       </c>
       <c r="C2">
-        <v>-0.1344957730855359</v>
+        <v>-0.1072730268994059</v>
       </c>
       <c r="D2">
-        <v>-0.06008446677831977</v>
+        <v>0.6787000797139513</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>-0.3200615872157632</v>
+        <v>-0.302917003511739</v>
       </c>
       <c r="B3">
-        <v>-0.3478100065159239</v>
+        <v>-1.009601403299807</v>
       </c>
       <c r="C3">
-        <v>-0.7043896824716543</v>
+        <v>1.858266279837816</v>
       </c>
       <c r="D3">
-        <v>-0.3280336779696874</v>
+        <v>0.8135963076010672</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.5407136123174259</v>
+        <v>1.121342540088303</v>
       </c>
       <c r="B4">
-        <v>1.113579489625198</v>
+        <v>0.5910848441761922</v>
       </c>
       <c r="C4">
-        <v>0.02725685698561502</v>
+        <v>1.314040625271335</v>
       </c>
       <c r="D4">
-        <v>0.5555806178222362</v>
+        <v>0.6632661180021267</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>-1.331965764443537</v>
+        <v>-0.739014522106355</v>
       </c>
       <c r="B5">
-        <v>-1.308406004001967</v>
+        <v>-1.449497454489717</v>
       </c>
       <c r="C5">
-        <v>-0.5223709897345091</v>
+        <v>1.687655282551267</v>
       </c>
       <c r="D5">
-        <v>0.9830920016851457</v>
+        <v>-0.07784707888826939</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>-0.4760893547673566</v>
+        <v>-0.206957496512155</v>
       </c>
       <c r="B6">
-        <v>-0.5192159951055324</v>
+        <v>-0.6979744156311759</v>
       </c>
       <c r="C6">
-        <v>-0.2492670708659727</v>
+        <v>1.311131838269516</v>
       </c>
       <c r="D6">
-        <v>-0.1532457309596818</v>
+        <v>-0.2286579280000111</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>-1.067760924548162</v>
+        <v>-0.6022233935484604</v>
       </c>
       <c r="B7">
-        <v>-1.041984382537889</v>
+        <v>-1.382955635705717</v>
       </c>
       <c r="C7">
-        <v>-0.8812633905415716</v>
+        <v>-2.84416320639439</v>
       </c>
       <c r="D7">
-        <v>-3.5323290845458</v>
+        <v>0.456807932487363</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>-0.2011595316557707</v>
+        <v>1.120141742636174</v>
       </c>
       <c r="B8">
-        <v>0.9455590124155551</v>
+        <v>-0.1815999502746158</v>
       </c>
       <c r="C8">
-        <v>0.2428904794252544</v>
+        <v>-1.079980324160029</v>
       </c>
       <c r="D8">
-        <v>-0.5612701973562446</v>
+        <v>0.3045805250748993</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>-1.162646545371079</v>
+        <v>-0.889448870417771</v>
       </c>
       <c r="B9">
-        <v>-1.000071460057291</v>
+        <v>-1.20343323133743</v>
       </c>
       <c r="C9">
-        <v>0.3673598636481723</v>
+        <v>0.5547235680591223</v>
       </c>
       <c r="D9">
-        <v>0.2828866286272129</v>
+        <v>-2.098633991804225</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.1140340726802237</v>
+        <v>1.216328255733533</v>
       </c>
       <c r="B10">
-        <v>1.230459235721207</v>
+        <v>0.02617384856276923</v>
       </c>
       <c r="C10">
-        <v>0.7980002568816536</v>
+        <v>-1.344960357494727</v>
       </c>
       <c r="D10">
-        <v>-1.60916428432761</v>
+        <v>-0.2794664181092362</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>2.949550939784699</v>
+        <v>-0.162728755033694</v>
       </c>
       <c r="B11">
-        <v>-0.4621627358351739</v>
+        <v>3.180043271361961</v>
       </c>
       <c r="C11">
-        <v>1.079012678593624</v>
+        <v>0.3602866930647325</v>
       </c>
       <c r="D11">
-        <v>0.5550743674135541</v>
+        <v>-0.687435940343869</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>-0.303557271787155</v>
+        <v>-0.6057101308387881</v>
       </c>
       <c r="B12">
-        <v>0.2800671066061132</v>
+        <v>-0.5648166597995736</v>
       </c>
       <c r="C12">
-        <v>-1.391964237296209</v>
+        <v>-0.9533988159617109</v>
       </c>
       <c r="D12">
-        <v>-1.259022208278859</v>
+        <v>1.38215485783857</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.610062320159225</v>
+        <v>0.3242741948237212</v>
       </c>
       <c r="B13">
-        <v>0.3340958920059906</v>
+        <v>0.3865118344501659</v>
       </c>
       <c r="C13">
-        <v>0.2066032657131969</v>
+        <v>-1.015544191751284</v>
       </c>
       <c r="D13">
-        <v>-0.9313742847385551</v>
+        <v>0.06377183114385272</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.1576043923025526</v>
+        <v>2.090817263698786</v>
       </c>
       <c r="B14">
-        <v>2.260819431586544</v>
+        <v>-0.07083843359644117</v>
       </c>
       <c r="C14">
-        <v>0.2578806971079301</v>
+        <v>-1.386509468404555</v>
       </c>
       <c r="D14">
-        <v>-1.378814081353948</v>
+        <v>0.6515160896491271</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>-1.281392195454378</v>
+        <v>-0.7171966785302202</v>
       </c>
       <c r="B15">
-        <v>-1.114996322151476</v>
+        <v>-1.250710833062116</v>
       </c>
       <c r="C15">
-        <v>-0.9383051734350851</v>
+        <v>1.508326076052321</v>
       </c>
       <c r="D15">
-        <v>1.073452312619551</v>
+        <v>0.6358733159887871</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>-0.4678823782919196</v>
+        <v>-0.4702951521841738</v>
       </c>
       <c r="B16">
-        <v>-0.6694031461217697</v>
+        <v>-0.129564646870789</v>
       </c>
       <c r="C16">
-        <v>0.7016263878040712</v>
+        <v>0.8522074723407334</v>
       </c>
       <c r="D16">
-        <v>0.7155994978892091</v>
+        <v>-1.098476784564531</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.5053628316332431</v>
+        <v>0.0352641599308756</v>
       </c>
       <c r="B17">
-        <v>-0.1026847669820098</v>
+        <v>0.7934087232010664</v>
       </c>
       <c r="C17">
-        <v>1.0554559417475</v>
+        <v>0.02460226257065171</v>
       </c>
       <c r="D17">
-        <v>0.1058110055681164</v>
+        <v>-1.134101721329584</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>3.668336026174996</v>
+        <v>0.1496996329399842</v>
       </c>
       <c r="B18">
-        <v>0.3158500526530746</v>
+        <v>3.261911448996035</v>
       </c>
       <c r="C18">
-        <v>0.06577118550194483</v>
+        <v>0.2326814307212499</v>
       </c>
       <c r="D18">
-        <v>0.2247037960493632</v>
+        <v>0.2080471760493595</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>-0.1748887304045168</v>
+        <v>0.6591342296907236</v>
       </c>
       <c r="B19">
-        <v>0.7894059895670134</v>
+        <v>-0.1738246465192177</v>
       </c>
       <c r="C19">
-        <v>0.6360553660405718</v>
+        <v>-0.3687358079413411</v>
       </c>
       <c r="D19">
-        <v>-0.1515607891976455</v>
+        <v>-0.6593261035434684</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>-0.03635126415138515</v>
+        <v>-2.261372896630381</v>
       </c>
       <c r="B20">
-        <v>-0.8825012679783482</v>
+        <v>-0.1474802148098167</v>
       </c>
       <c r="C20">
-        <v>-2.638765288928202</v>
+        <v>0.2785027875122507</v>
       </c>
       <c r="D20">
-        <v>0.4273722683404541</v>
+        <v>2.536105747217748</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>-1.251794709000473</v>
+        <v>-0.5974839114112818</v>
       </c>
       <c r="B21">
-        <v>-1.148894937100019</v>
+        <v>-1.360854711623342</v>
       </c>
       <c r="C21">
-        <v>-0.5198315405755357</v>
+        <v>1.735046355207829</v>
       </c>
       <c r="D21">
-        <v>1.001047605450619</v>
+        <v>0.2578115773565483</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>-0.1501402510255205</v>
+        <v>2.23009563390841</v>
       </c>
       <c r="B22">
-        <v>1.868660282398996</v>
+        <v>0.2037680066836703</v>
       </c>
       <c r="C22">
-        <v>0.5573119928443228</v>
+        <v>1.820286919815246</v>
       </c>
       <c r="D22">
-        <v>0.8664791839910104</v>
+        <v>0.6198885339427116</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.07206429477820175</v>
+        <v>0.3284351569117704</v>
       </c>
       <c r="B23">
-        <v>0.2282877974369407</v>
+        <v>0.1532582048684125</v>
       </c>
       <c r="C23">
-        <v>0.7874217733475756</v>
+        <v>0.1262438006919255</v>
       </c>
       <c r="D23">
-        <v>-0.005621980459884934</v>
+        <v>-0.8396051191072071</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>2.048159454349464</v>
+        <v>0.1501782190307902</v>
       </c>
       <c r="B24">
-        <v>0.1560986527639576</v>
+        <v>1.981923626777829</v>
       </c>
       <c r="C24">
-        <v>0.6003201650258045</v>
+        <v>-0.1036007018330642</v>
       </c>
       <c r="D24">
-        <v>-0.1250377132640932</v>
+        <v>-0.4637309644437951</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>-0.5537835984892502</v>
+        <v>-0.6772733683469249</v>
       </c>
       <c r="B25">
-        <v>-0.9186660515689318</v>
+        <v>-0.327817304470044</v>
       </c>
       <c r="C25">
-        <v>1.047238278391357</v>
+        <v>0.5358172506212893</v>
       </c>
       <c r="D25">
-        <v>0.5480591038543408</v>
+        <v>-1.97949078314713</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>-0.3123803658319785</v>
+        <v>-0.002651447868101188</v>
       </c>
       <c r="B26">
-        <v>-0.1678430435810953</v>
+        <v>-0.2410833749389307</v>
       </c>
       <c r="C26">
-        <v>1.922798691636503</v>
+        <v>-0.4697305793004782</v>
       </c>
       <c r="D26">
-        <v>-0.2684683553655297</v>
+        <v>-2.347079033792981</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>-0.001744628994776697</v>
+        <v>0.0606105219834924</v>
       </c>
       <c r="B27">
-        <v>-0.2645255671567175</v>
+        <v>0.4159488414234455</v>
       </c>
       <c r="C27">
-        <v>0.2955163615059466</v>
+        <v>-0.4816356346933672</v>
       </c>
       <c r="D27">
-        <v>0.9995739734056262</v>
+        <v>-0.02953117243140899</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>-0.5647489733211761</v>
+        <v>-1.72975097863186</v>
       </c>
       <c r="B28">
-        <v>-1.392280496088968</v>
+        <v>-0.5455059551922599</v>
       </c>
       <c r="C28">
-        <v>-0.8709657139385798</v>
+        <v>0.3552846804719515</v>
       </c>
       <c r="D28">
-        <v>0.7629070491194196</v>
+        <v>-0.3266012010856819</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.6802841441867088</v>
+        <v>0.3447951014435365</v>
       </c>
       <c r="B29">
-        <v>0.4877458413901044</v>
+        <v>0.452517435389627</v>
       </c>
       <c r="C29">
-        <v>-0.3365102835931755</v>
+        <v>-1.131592154554927</v>
       </c>
       <c r="D29">
-        <v>-1.379503777563473</v>
+        <v>0.4614583238496287</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>-0.4481464615084308</v>
+        <v>-1.994030454895387</v>
       </c>
       <c r="B30">
-        <v>-1.307154592235852</v>
+        <v>-0.4142679462815622</v>
       </c>
       <c r="C30">
-        <v>-1.278105305084483</v>
+        <v>0.186757028727056</v>
       </c>
       <c r="D30">
-        <v>0.4698671346619768</v>
+        <v>0.5014292120783881</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>2.291161569459284</v>
+        <v>0.3669769054800686</v>
       </c>
       <c r="B31">
-        <v>0.359977943751563</v>
+        <v>2.242670741929451</v>
       </c>
       <c r="C31">
-        <v>0.7077221413187667</v>
+        <v>0.2096695284257839</v>
       </c>
       <c r="D31">
-        <v>1.184893598181572</v>
+        <v>-0.01745723941392777</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>-0.6840684660768071</v>
+        <v>-1.560885645637395</v>
       </c>
       <c r="B32">
-        <v>-1.108399313323663</v>
+        <v>-0.6966968771515971</v>
       </c>
       <c r="C32">
-        <v>-1.52739668953819</v>
+        <v>0.6526433209848469</v>
       </c>
       <c r="D32">
-        <v>0.5828381461242127</v>
+        <v>1.106031868162167</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>-0.7071251844157138</v>
+        <v>-0.268945378703368</v>
       </c>
       <c r="B33">
-        <v>-0.611901918265517</v>
+        <v>-0.8443240658693292</v>
       </c>
       <c r="C33">
-        <v>0.2471695711948048</v>
+        <v>-1.031489649087321</v>
       </c>
       <c r="D33">
-        <v>-1.415611458445462</v>
+        <v>-0.4706887398789066</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>-0.3522382142513847</v>
+        <v>-1.004298404913665</v>
       </c>
       <c r="B34">
-        <v>-0.5005562053898885</v>
+        <v>-0.2327508522814036</v>
       </c>
       <c r="C34">
-        <v>-1.977686446627027</v>
+        <v>-0.2643062274935713</v>
       </c>
       <c r="D34">
-        <v>0.1372038461180748</v>
+        <v>1.759240062893023</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>-0.8997954795866128</v>
+        <v>-1.624404136229736</v>
       </c>
       <c r="B35">
-        <v>-1.352571033950241</v>
+        <v>-1.013334498955728</v>
       </c>
       <c r="C35">
-        <v>-1.665757895824229</v>
+        <v>0.9950324922474358</v>
       </c>
       <c r="D35">
-        <v>0.7243219888748504</v>
+        <v>1.289254736771777</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.2955604632080205</v>
+        <v>-0.0412372042726988</v>
       </c>
       <c r="B36">
-        <v>-0.09364179523917739</v>
+        <v>0.6123330985050915</v>
       </c>
       <c r="C36">
-        <v>0.4044538007487932</v>
+        <v>0.2877333034863807</v>
       </c>
       <c r="D36">
-        <v>0.3436505637694107</v>
+        <v>-0.2891814790673408</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>-0.4725329582332027</v>
+        <v>-0.6184796119883564</v>
       </c>
       <c r="B37">
-        <v>-0.9678104511259436</v>
+        <v>-0.3665723908510555</v>
       </c>
       <c r="C37">
-        <v>0.9825039764461909</v>
+        <v>0.4759395033572169</v>
       </c>
       <c r="D37">
-        <v>0.3802210065760142</v>
+        <v>-1.645339240633092</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.8339550708279417</v>
+        <v>0.2657453772695783</v>
       </c>
       <c r="B38">
-        <v>-0.1119884856530805</v>
+        <v>0.9427456215588753</v>
       </c>
       <c r="C38">
-        <v>2.078888450617312</v>
+        <v>-0.2160985742606669</v>
       </c>
       <c r="D38">
-        <v>0.1002853445187099</v>
+        <v>-1.827907069031177</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.6088282043354388</v>
+        <v>0.3577135722197491</v>
       </c>
       <c r="B39">
-        <v>0.6158989178776348</v>
+        <v>0.2745932168438393</v>
       </c>
       <c r="C39">
-        <v>0.06961657203394098</v>
+        <v>-1.932752342850694</v>
       </c>
       <c r="D39">
-        <v>-1.723758542656079</v>
+        <v>0.3953095983768311</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1.750969949555564</v>
+        <v>0.7768683610981734</v>
       </c>
       <c r="B40">
-        <v>0.8787798716123478</v>
+        <v>1.564653934291358</v>
       </c>
       <c r="C40">
-        <v>0.2547773255239978</v>
+        <v>-0.3147339046779226</v>
       </c>
       <c r="D40">
-        <v>0.05135449088175093</v>
+        <v>0.3714742984112471</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.4675684072066306</v>
+        <v>0.6443741272156296</v>
       </c>
       <c r="B41">
-        <v>0.7938531199974723</v>
+        <v>-0.07917230683737946</v>
       </c>
       <c r="C41">
-        <v>0.7169364227904824</v>
+        <v>-2.218769721526615</v>
       </c>
       <c r="D41">
-        <v>-2.757608574525448</v>
+        <v>-0.2195408568933875</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>-0.2847361856388781</v>
+        <v>-2.26968610055861</v>
       </c>
       <c r="B42">
-        <v>-1.432573484093978</v>
+        <v>-0.2367940111823363</v>
       </c>
       <c r="C42">
-        <v>-1.706784037053941</v>
+        <v>0.105439328147007</v>
       </c>
       <c r="D42">
-        <v>0.5642785435770535</v>
+        <v>1.391776230773331</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>-0.192766193173505</v>
+        <v>1.541791882777978</v>
       </c>
       <c r="B43">
-        <v>1.544050296207838</v>
+        <v>-0.4230958712610783</v>
       </c>
       <c r="C43">
-        <v>0.6639912445564018</v>
+        <v>-1.203722886487989</v>
       </c>
       <c r="D43">
-        <v>-0.886331522867176</v>
+        <v>0.03782071540257251</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>-0.3954278678527888</v>
+        <v>2.044861962790808</v>
       </c>
       <c r="B44">
-        <v>1.771345745915747</v>
+        <v>-0.1857991676206308</v>
       </c>
       <c r="C44">
-        <v>0.8930117294530956</v>
+        <v>0.5379176863409608</v>
       </c>
       <c r="D44">
-        <v>0.5933842880037895</v>
+        <v>0.2460303526151269</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>-0.8309424132141088</v>
+        <v>0.8122111276809838</v>
       </c>
       <c r="B45">
-        <v>1.803880633456849</v>
+        <v>-0.743463980966967</v>
       </c>
       <c r="C45">
-        <v>-1.393569862423921</v>
+        <v>0.6390606532261832</v>
       </c>
       <c r="D45">
-        <v>0.7103510519030325</v>
+        <v>1.363598303797543</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>-0.9527689515401792</v>
+        <v>0.3804875575808981</v>
       </c>
       <c r="B46">
-        <v>0.4940551266960324</v>
+        <v>-1.06776132856181</v>
       </c>
       <c r="C46">
-        <v>-0.4337931848961079</v>
+        <v>0.7682545706451653</v>
       </c>
       <c r="D46">
-        <v>0.4003439472746345</v>
+        <v>0.5559809652013932</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>-0.2318976467607875</v>
+        <v>1.249176640111194</v>
       </c>
       <c r="B47">
-        <v>1.256067666214309</v>
+        <v>-0.1111826641255739</v>
       </c>
       <c r="C47">
-        <v>0.4407745049070976</v>
+        <v>-0.6138030630995985</v>
       </c>
       <c r="D47">
-        <v>-0.04946643262213005</v>
+        <v>-0.09688465731971531</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>-0.03924683428686912</v>
+        <v>0.2109805662118609</v>
       </c>
       <c r="B48">
-        <v>0.766973693210221</v>
+        <v>-0.2247601297740944</v>
       </c>
       <c r="C48">
-        <v>-0.8556671649669327</v>
+        <v>-0.9326201780488626</v>
       </c>
       <c r="D48">
-        <v>-0.9278566582866274</v>
+        <v>1.067705976263672</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>-0.5534851242081464</v>
+        <v>0.0638638932420445</v>
       </c>
       <c r="B49">
-        <v>-0.3425066471412471</v>
+        <v>-0.3553688918022873</v>
       </c>
       <c r="C49">
-        <v>1.088945272320474</v>
+        <v>0.4876638138712423</v>
       </c>
       <c r="D49">
-        <v>0.3600902304084592</v>
+        <v>-1.006876626482018</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>-0.6268189679132403</v>
+        <v>-0.710840623507652</v>
       </c>
       <c r="B50">
-        <v>-1.087198405933032</v>
+        <v>-0.6293115730764956</v>
       </c>
       <c r="C50">
-        <v>0.5532501502307807</v>
+        <v>-1.115387712190836</v>
       </c>
       <c r="D50">
-        <v>-1.237386303639506</v>
+        <v>-1.159218584776226</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>-0.6923515564906272</v>
+        <v>-0.8393556582358192</v>
       </c>
       <c r="B51">
-        <v>-1.079496459805434</v>
+        <v>-0.4903933715143905</v>
       </c>
       <c r="C51">
-        <v>0.08587419603395964</v>
+        <v>0.6256466586493961</v>
       </c>
       <c r="D51">
-        <v>1.423146083492864</v>
+        <v>-1.137799281774138</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>-0.005361145050261085</v>
+        <v>2.379630646579112</v>
       </c>
       <c r="B52">
-        <v>2.473165716288434</v>
+        <v>0.1579186395107126</v>
       </c>
       <c r="C52">
-        <v>1.029525748483664</v>
+        <v>-0.6442942973449334</v>
       </c>
       <c r="D52">
-        <v>-0.2172123546422268</v>
+        <v>0.08519347123218524</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.1404336491042009</v>
+        <v>0.9547428549120981</v>
       </c>
       <c r="B53">
-        <v>1.086557878886958</v>
+        <v>-0.02510177044890672</v>
       </c>
       <c r="C53">
-        <v>-0.07338389574446685</v>
+        <v>-1.322150357308521</v>
       </c>
       <c r="D53">
-        <v>-1.136702841109364</v>
+        <v>0.7002593626819353</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>-0.8369114433629696</v>
+        <v>-0.434599796875141</v>
       </c>
       <c r="B54">
-        <v>-0.8812111769301971</v>
+        <v>-0.9097864346655546</v>
       </c>
       <c r="C54">
-        <v>-0.6731136805081844</v>
+        <v>-1.318470142984858</v>
       </c>
       <c r="D54">
-        <v>-1.63874864398083</v>
+        <v>0.5000022351739715</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>2.440264472043394</v>
+        <v>0.02759974832332868</v>
       </c>
       <c r="B55">
-        <v>0.2826799283956475</v>
+        <v>2.039339108432341</v>
       </c>
       <c r="C55">
-        <v>-0.4826277741990775</v>
+        <v>0.1793423473915262</v>
       </c>
       <c r="D55">
-        <v>0.2135325015192207</v>
+        <v>0.7691682048615115</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>-1.012645958948811</v>
+        <v>-0.5413773440565157</v>
       </c>
       <c r="B56">
-        <v>-0.7693363389142368</v>
+        <v>-0.9855139982527512</v>
       </c>
       <c r="C56">
-        <v>-0.4791232425064916</v>
+        <v>1.660320962705558</v>
       </c>
       <c r="D56">
-        <v>1.15377644286476</v>
+        <v>0.203389915940586</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>-0.1867187677618517</v>
+        <v>-1.551026966504777</v>
       </c>
       <c r="B57">
-        <v>-0.9759520875864957</v>
+        <v>-0.2995547098910315</v>
       </c>
       <c r="C57">
-        <v>-1.627098103656363</v>
+        <v>-0.1500255390968325</v>
       </c>
       <c r="D57">
-        <v>-0.02918778736648259</v>
+        <v>1.376550450812949</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>2.549707248925162</v>
+        <v>-0.1270099446771869</v>
       </c>
       <c r="B58">
-        <v>-0.416324492801409</v>
+        <v>2.782859507001119</v>
       </c>
       <c r="C58">
-        <v>1.236133439251035</v>
+        <v>0.3306082936124162</v>
       </c>
       <c r="D58">
-        <v>0.5169121454104344</v>
+        <v>-0.8616259531769556</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>0.3448957181642307</v>
+        <v>-0.003803240843944553</v>
       </c>
       <c r="B59">
-        <v>-0.6499226666291611</v>
+        <v>0.8675045529096181</v>
       </c>
       <c r="C59">
-        <v>3.182959086232612</v>
+        <v>-0.03034207134130958</v>
       </c>
       <c r="D59">
-        <v>0.3648832471028487</v>
+        <v>-2.817942757270603</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>-0.9108854246877637</v>
+        <v>0.00518717195658179</v>
       </c>
       <c r="B60">
-        <v>-0.121698936584266</v>
+        <v>-0.8167339131441607</v>
       </c>
       <c r="C60">
-        <v>0.04996886946997295</v>
+        <v>0.5381436492362495</v>
       </c>
       <c r="D60">
-        <v>0.7567062172237284</v>
+        <v>-0.7617050992509022</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.8923643380739343</v>
+        <v>0.8272489800494818</v>
       </c>
       <c r="B61">
-        <v>1.161794092512823</v>
+        <v>0.9556138978049379</v>
       </c>
       <c r="C61">
-        <v>0.4212903447174739</v>
+        <v>-0.5469985111432283</v>
       </c>
       <c r="D61">
-        <v>-0.07700382285210555</v>
+        <v>0.2110461788321746</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>-0.8393700774264543</v>
+        <v>-0.5925358418611324</v>
       </c>
       <c r="B62">
-        <v>-1.036930967041474</v>
+        <v>-0.8044359805498124</v>
       </c>
       <c r="C62">
-        <v>0.4670069185103626</v>
+        <v>0.9541634081365014</v>
       </c>
       <c r="D62">
-        <v>0.5686625533238048</v>
+        <v>-1.13677641791292</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>-0.6006394479858924</v>
+        <v>-0.4168208512207943</v>
       </c>
       <c r="B63">
-        <v>-0.8449970291894824</v>
+        <v>-0.5958024895617011</v>
       </c>
       <c r="C63">
-        <v>0.3382009984819328</v>
+        <v>0.6822969861131857</v>
       </c>
       <c r="D63">
-        <v>-0.03617999693524732</v>
+        <v>-0.8849515533415164</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.2393137699893491</v>
+        <v>1.018365316704887</v>
       </c>
       <c r="B64">
-        <v>0.8307607270633781</v>
+        <v>0.6090880224715254</v>
       </c>
       <c r="C64">
-        <v>0.3030951279876862</v>
+        <v>0.285426301332379</v>
       </c>
       <c r="D64">
-        <v>1.038932712224499</v>
+        <v>0.1717234955772967</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.2902797144876564</v>
+        <v>-0.3505004717883068</v>
       </c>
       <c r="B65">
-        <v>-0.8043419613701872</v>
+        <v>0.4751877796657018</v>
       </c>
       <c r="C65">
-        <v>0.2987173885734633</v>
+        <v>0.4867153120067606</v>
       </c>
       <c r="D65">
-        <v>0.6942056466625377</v>
+        <v>-0.3394944677653368</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.1591771920822036</v>
+        <v>0.8864532275718309</v>
       </c>
       <c r="B66">
-        <v>0.8645695357556603</v>
+        <v>0.1823457169844978</v>
       </c>
       <c r="C66">
-        <v>0.5488776933929165</v>
+        <v>-1.243836169147107</v>
       </c>
       <c r="D66">
-        <v>-0.7801294586677841</v>
+        <v>0.09682681249698816</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>-0.5863182760851002</v>
+        <v>-1.554841950225133</v>
       </c>
       <c r="B67">
-        <v>-1.344031641583197</v>
+        <v>-0.5914640992071469</v>
       </c>
       <c r="C67">
-        <v>-1.563931801645152</v>
+        <v>0.8043701755509671</v>
       </c>
       <c r="D67">
-        <v>0.7302367090830946</v>
+        <v>1.212400612250526</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>-0.8485807271189682</v>
+        <v>-0.6732798301043051</v>
       </c>
       <c r="B68">
-        <v>-1.139010022155426</v>
+        <v>-0.6312638120483545</v>
       </c>
       <c r="C68">
-        <v>0.09219090097640847</v>
+        <v>0.9807049964672094</v>
       </c>
       <c r="D68">
-        <v>1.466419678792206</v>
+        <v>-0.988546728882363</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>0.7067698907647187</v>
+        <v>0.7906191285096709</v>
       </c>
       <c r="B69">
-        <v>0.8642312634878715</v>
+        <v>0.511086284252913</v>
       </c>
       <c r="C69">
-        <v>0.1082808238857242</v>
+        <v>-1.298053803501268</v>
       </c>
       <c r="D69">
-        <v>-1.597684094970928</v>
+        <v>0.2977168488696449</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>-0.8066398602124369</v>
+        <v>-0.03340825052069057</v>
       </c>
       <c r="B70">
-        <v>0.6361649200262824</v>
+        <v>-1.088408730496997</v>
       </c>
       <c r="C70">
-        <v>-0.8369617223133745</v>
+        <v>0.6654371373749002</v>
       </c>
       <c r="D70">
-        <v>-0.005219027587836655</v>
+        <v>0.5100972165611889</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>-0.3918086034479453</v>
+        <v>-0.6130790106439087</v>
       </c>
       <c r="B71">
-        <v>-0.3144210246889679</v>
+        <v>0.06882288450553867</v>
       </c>
       <c r="C71">
-        <v>-0.8214527464939238</v>
+        <v>0.1458825016763191</v>
       </c>
       <c r="D71">
-        <v>1.811090409109191</v>
+        <v>0.1797168435424756</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>-0.6958270408435208</v>
+        <v>-0.2064261756645039</v>
       </c>
       <c r="B72">
-        <v>-0.8137422221311177</v>
+        <v>-0.3070069805364938</v>
       </c>
       <c r="C72">
-        <v>-1.429399573401647</v>
+        <v>1.223270757082157</v>
       </c>
       <c r="D72">
-        <v>1.452989626544545</v>
+        <v>1.506375254617568</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>0.02065504387775341</v>
+        <v>0.9191333852231111</v>
       </c>
       <c r="B73">
-        <v>1.092042041359844</v>
+        <v>-0.129927141086621</v>
       </c>
       <c r="C73">
-        <v>0.1737422518428576</v>
+        <v>-0.9624480270107882</v>
       </c>
       <c r="D73">
-        <v>-0.6886999592927069</v>
+        <v>0.05292464624665942</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>0.04767954253992709</v>
+        <v>0.718841825040177</v>
       </c>
       <c r="B74">
-        <v>0.9465100393993027</v>
+        <v>-0.1112437670739509</v>
       </c>
       <c r="C74">
-        <v>-0.07244292083371416</v>
+        <v>-0.8161165918618373</v>
       </c>
       <c r="D74">
-        <v>-0.9478994534558585</v>
+        <v>0.2192987071014537</v>
       </c>
     </row>
   </sheetData>

--- a/results/scores-4-factors.xlsx
+++ b/results/scores-4-factors.xlsx
@@ -360,1045 +360,1045 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>MRFA1</t>
+          <t>ML3</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MRFA3</t>
+          <t>ML1</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>MRFA4</t>
+          <t>ML4</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MRFA2</t>
+          <t>ML2</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.9219065881315854</v>
+        <v>0.3180290017109377</v>
       </c>
       <c r="B2">
-        <v>0.4155395341394991</v>
+        <v>0.7875836770173106</v>
       </c>
       <c r="C2">
-        <v>-0.1072730268994059</v>
+        <v>0.07519927169444865</v>
       </c>
       <c r="D2">
-        <v>0.6787000797139513</v>
+        <v>-0.6524761268680283</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>-0.302917003511739</v>
+        <v>-0.9621783906113308</v>
       </c>
       <c r="B3">
-        <v>-1.009601403299807</v>
+        <v>-1.353085965051426</v>
       </c>
       <c r="C3">
-        <v>1.858266279837816</v>
+        <v>-0.1911867807124819</v>
       </c>
       <c r="D3">
-        <v>0.8135963076010672</v>
+        <v>-0.4130502830727527</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1.121342540088303</v>
+        <v>0.3463589432497871</v>
       </c>
       <c r="B4">
-        <v>0.5910848441761922</v>
+        <v>0.646202614010516</v>
       </c>
       <c r="C4">
-        <v>1.314040625271335</v>
+        <v>0.3274577968986278</v>
       </c>
       <c r="D4">
-        <v>0.6632661180021267</v>
+        <v>-0.2100943009774384</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>-0.739014522106355</v>
+        <v>-0.6274540250445235</v>
       </c>
       <c r="B5">
-        <v>-1.449497454489717</v>
+        <v>-3.151878608174977</v>
       </c>
       <c r="C5">
-        <v>1.687655282551267</v>
+        <v>-0.4676720873418372</v>
       </c>
       <c r="D5">
-        <v>-0.07784707888826939</v>
+        <v>-0.05379802099781489</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>-0.206957496512155</v>
+        <v>-0.4345564984488755</v>
       </c>
       <c r="B6">
-        <v>-0.6979744156311759</v>
+        <v>-0.7983313782181744</v>
       </c>
       <c r="C6">
-        <v>1.311131838269516</v>
+        <v>0.09691393517581728</v>
       </c>
       <c r="D6">
-        <v>-0.2286579280000111</v>
+        <v>0.7797756485610636</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>-0.6022233935484604</v>
+        <v>-0.5525347157835553</v>
       </c>
       <c r="B7">
-        <v>-1.382955635705717</v>
+        <v>0.7526323339253698</v>
       </c>
       <c r="C7">
-        <v>-2.84416320639439</v>
+        <v>-1.302979496435065</v>
       </c>
       <c r="D7">
-        <v>0.456807932487363</v>
+        <v>-0.8168696954827165</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1.120141742636174</v>
+        <v>0.7779551751172055</v>
       </c>
       <c r="B8">
-        <v>-0.1815999502746158</v>
+        <v>0.7149548440374456</v>
       </c>
       <c r="C8">
-        <v>-1.079980324160029</v>
+        <v>-0.7296543733386587</v>
       </c>
       <c r="D8">
-        <v>0.3045805250748993</v>
+        <v>-0.7583448989865659</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>-0.889448870417771</v>
+        <v>-0.3332327033270109</v>
       </c>
       <c r="B9">
-        <v>-1.20343323133743</v>
+        <v>-0.5973188865423486</v>
       </c>
       <c r="C9">
-        <v>0.5547235680591223</v>
+        <v>-0.6710963101573474</v>
       </c>
       <c r="D9">
-        <v>-2.098633991804225</v>
+        <v>3.660703582410092</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1.216328255733533</v>
+        <v>1.213741439468775</v>
       </c>
       <c r="B10">
-        <v>0.02617384856276923</v>
+        <v>0.7898148581442169</v>
       </c>
       <c r="C10">
-        <v>-1.344960357494727</v>
+        <v>-0.4968429716903368</v>
       </c>
       <c r="D10">
-        <v>-0.2794664181092362</v>
+        <v>-0.3114557338866771</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>-0.162728755033694</v>
+        <v>0.6019124505958331</v>
       </c>
       <c r="B11">
-        <v>3.180043271361961</v>
+        <v>0.6318286199630762</v>
       </c>
       <c r="C11">
-        <v>0.3602866930647325</v>
+        <v>4.389465103008035</v>
       </c>
       <c r="D11">
-        <v>-0.687435940343869</v>
+        <v>-0.4062348562133765</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>-0.6057101308387881</v>
+        <v>-0.9287519352479611</v>
       </c>
       <c r="B12">
-        <v>-0.5648166597995736</v>
+        <v>0.5031125281293425</v>
       </c>
       <c r="C12">
-        <v>-0.9533988159617109</v>
+        <v>-0.7701648516743571</v>
       </c>
       <c r="D12">
-        <v>1.38215485783857</v>
+        <v>-0.8869325090041633</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.3242741948237212</v>
+        <v>0.5026948978193812</v>
       </c>
       <c r="B13">
-        <v>0.3865118344501659</v>
+        <v>0.5019430479374887</v>
       </c>
       <c r="C13">
-        <v>-1.015544191751284</v>
+        <v>0.1428839117146371</v>
       </c>
       <c r="D13">
-        <v>0.06377183114385272</v>
+        <v>-0.4559785714391265</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>2.090817263698786</v>
+        <v>1.535056746625557</v>
       </c>
       <c r="B14">
-        <v>-0.07083843359644117</v>
+        <v>0.8681422961021144</v>
       </c>
       <c r="C14">
-        <v>-1.386509468404555</v>
+        <v>-0.8037064286179497</v>
       </c>
       <c r="D14">
-        <v>0.6515160896491271</v>
+        <v>-0.9150595713618837</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>-0.7171966785302202</v>
+        <v>-0.8062596441954444</v>
       </c>
       <c r="B15">
-        <v>-1.250710833062116</v>
+        <v>-2.75495932139022</v>
       </c>
       <c r="C15">
-        <v>1.508326076052321</v>
+        <v>-0.4830225579485367</v>
       </c>
       <c r="D15">
-        <v>0.6358733159887871</v>
+        <v>-0.7632207974900317</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>-0.4702951521841738</v>
+        <v>-0.3245666736107739</v>
       </c>
       <c r="B16">
-        <v>-0.129564646870789</v>
+        <v>0.083219529448333</v>
       </c>
       <c r="C16">
-        <v>0.8522074723407334</v>
+        <v>0.1383587662555674</v>
       </c>
       <c r="D16">
-        <v>-1.098476784564531</v>
+        <v>1.092407850941288</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.0352641599308756</v>
+        <v>0.5968903543223867</v>
       </c>
       <c r="B17">
-        <v>0.7934087232010664</v>
+        <v>0.5663259276470616</v>
       </c>
       <c r="C17">
-        <v>0.02460226257065171</v>
+        <v>0.772231105808397</v>
       </c>
       <c r="D17">
-        <v>-1.134101721329584</v>
+        <v>0.8584340219879327</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.1496996329399842</v>
+        <v>0.8849792150579631</v>
       </c>
       <c r="B18">
-        <v>3.261911448996035</v>
+        <v>0.6993353922347961</v>
       </c>
       <c r="C18">
-        <v>0.2326814307212499</v>
+        <v>3.339402371060992</v>
       </c>
       <c r="D18">
-        <v>0.2080471760493595</v>
+        <v>-0.4349682044915029</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.6591342296907236</v>
+        <v>0.7332149509481724</v>
       </c>
       <c r="B19">
-        <v>-0.1738246465192177</v>
+        <v>0.2973832801543872</v>
       </c>
       <c r="C19">
-        <v>-0.3687358079413411</v>
+        <v>-0.4776524080936636</v>
       </c>
       <c r="D19">
-        <v>-0.6593261035434684</v>
+        <v>0.6664519382525399</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>-2.261372896630381</v>
+        <v>-3.082581009456129</v>
       </c>
       <c r="B20">
-        <v>-0.1474802148098167</v>
+        <v>0.6375042220020539</v>
       </c>
       <c r="C20">
-        <v>0.2785027875122507</v>
+        <v>-0.199997825804199</v>
       </c>
       <c r="D20">
-        <v>2.536105747217748</v>
+        <v>-0.3772243045280525</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>-0.5974839114112818</v>
+        <v>-0.5794251347863801</v>
       </c>
       <c r="B21">
-        <v>-1.360854711623342</v>
+        <v>-3.196074766877882</v>
       </c>
       <c r="C21">
-        <v>1.735046355207829</v>
+        <v>-0.4575249632541964</v>
       </c>
       <c r="D21">
-        <v>0.2578115773565483</v>
+        <v>-0.7005271153187902</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>2.23009563390841</v>
+        <v>1.024231081122723</v>
       </c>
       <c r="B22">
-        <v>0.2037680066836703</v>
+        <v>0.2044201100397962</v>
       </c>
       <c r="C22">
-        <v>1.820286919815246</v>
+        <v>-0.09228313504379754</v>
       </c>
       <c r="D22">
-        <v>0.6198885339427116</v>
+        <v>-1.053188160771474</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.3284351569117704</v>
+        <v>0.6880127872152351</v>
       </c>
       <c r="B23">
-        <v>0.1532582048684125</v>
+        <v>-0.02088845628136226</v>
       </c>
       <c r="C23">
-        <v>0.1262438006919255</v>
+        <v>0.1053184256525466</v>
       </c>
       <c r="D23">
-        <v>-0.8396051191072071</v>
+        <v>0.8114979200387472</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.1501782190307902</v>
+        <v>0.7920341016171208</v>
       </c>
       <c r="B24">
-        <v>1.981923626777829</v>
+        <v>0.7025893042752175</v>
       </c>
       <c r="C24">
-        <v>-0.1036007018330642</v>
+        <v>1.976083474742789</v>
       </c>
       <c r="D24">
-        <v>-0.4637309644437951</v>
+        <v>0.1685928231135798</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>-0.6772733683469249</v>
+        <v>0.04613625161882776</v>
       </c>
       <c r="B25">
-        <v>-0.327817304470044</v>
+        <v>-0.5373194025371249</v>
       </c>
       <c r="C25">
-        <v>0.5358172506212893</v>
+        <v>0.07528707218865401</v>
       </c>
       <c r="D25">
-        <v>-1.97949078314713</v>
+        <v>2.341857121494619</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>-0.002651447868101188</v>
+        <v>0.693522425245635</v>
       </c>
       <c r="B26">
-        <v>-0.2410833749389307</v>
+        <v>0.5036054979941715</v>
       </c>
       <c r="C26">
-        <v>-0.4697305793004782</v>
+        <v>-0.3552339167381161</v>
       </c>
       <c r="D26">
-        <v>-2.347079033792981</v>
+        <v>2.196047153466411</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.0606105219834924</v>
+        <v>0.08168363031232986</v>
       </c>
       <c r="B27">
-        <v>0.4159488414234455</v>
+        <v>0.767889896930135</v>
       </c>
       <c r="C27">
-        <v>-0.4816356346933672</v>
+        <v>-0.255958630402988</v>
       </c>
       <c r="D27">
-        <v>-0.02953117243140899</v>
+        <v>-0.6009082934309</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>-1.72975097863186</v>
+        <v>-1.455019258754831</v>
       </c>
       <c r="B28">
-        <v>-0.5455059551922599</v>
+        <v>-0.2539413819088152</v>
       </c>
       <c r="C28">
-        <v>0.3552846804719515</v>
+        <v>-0.2359799933668092</v>
       </c>
       <c r="D28">
-        <v>-0.3266012010856819</v>
+        <v>1.731352923701473</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.3447951014435365</v>
+        <v>0.4801843298305575</v>
       </c>
       <c r="B29">
-        <v>0.452517435389627</v>
+        <v>0.5546625974394007</v>
       </c>
       <c r="C29">
-        <v>-1.131592154554927</v>
+        <v>0.1303072905098886</v>
       </c>
       <c r="D29">
-        <v>0.4614583238496287</v>
+        <v>-0.644073973242965</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>-1.994030454895387</v>
+        <v>-2.027861098686301</v>
       </c>
       <c r="B30">
-        <v>-0.4142679462815622</v>
+        <v>0.1132596051562348</v>
       </c>
       <c r="C30">
-        <v>0.186757028727056</v>
+        <v>-0.3182982796107082</v>
       </c>
       <c r="D30">
-        <v>0.5014292120783881</v>
+        <v>0.6339936174684728</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.3669769054800686</v>
+        <v>0.717336753582168</v>
       </c>
       <c r="B31">
-        <v>2.242670741929451</v>
+        <v>0.7868526562885122</v>
       </c>
       <c r="C31">
-        <v>0.2096695284257839</v>
+        <v>1.655215262859027</v>
       </c>
       <c r="D31">
-        <v>-0.01745723941392777</v>
+        <v>-0.7973818968266615</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>-1.560885645637395</v>
+        <v>-1.584948444366526</v>
       </c>
       <c r="B32">
-        <v>-0.6966968771515971</v>
+        <v>-1.073570558050832</v>
       </c>
       <c r="C32">
-        <v>0.6526433209848469</v>
+        <v>-0.2581973976625702</v>
       </c>
       <c r="D32">
-        <v>1.106031868162167</v>
+        <v>-0.3203627396232076</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>-0.268945378703368</v>
+        <v>-0.1130514527356488</v>
       </c>
       <c r="B33">
-        <v>-0.8443240658693292</v>
+        <v>0.09420231101132019</v>
       </c>
       <c r="C33">
-        <v>-1.031489649087321</v>
+        <v>-0.7278563279391692</v>
       </c>
       <c r="D33">
-        <v>-0.4706887398789066</v>
+        <v>0.1332586643448588</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>-1.004298404913665</v>
+        <v>-1.692704450981476</v>
       </c>
       <c r="B34">
-        <v>-0.2327508522814036</v>
+        <v>0.5405291287711789</v>
       </c>
       <c r="C34">
-        <v>-0.2643062274935713</v>
+        <v>0.007356006587833697</v>
       </c>
       <c r="D34">
-        <v>1.759240062893023</v>
+        <v>-0.8779969911296379</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>-1.624404136229736</v>
+        <v>-1.845105901960522</v>
       </c>
       <c r="B35">
-        <v>-1.013334498955728</v>
+        <v>-1.711368577599248</v>
       </c>
       <c r="C35">
-        <v>0.9950324922474358</v>
+        <v>-0.3753462708016572</v>
       </c>
       <c r="D35">
-        <v>1.289254736771777</v>
+        <v>-0.7187080757809929</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>-0.0412372042726988</v>
+        <v>0.1144669225794225</v>
       </c>
       <c r="B36">
-        <v>0.6123330985050915</v>
+        <v>0.3195310995018568</v>
       </c>
       <c r="C36">
-        <v>0.2877333034863807</v>
+        <v>0.6492074390437768</v>
       </c>
       <c r="D36">
-        <v>-0.2891814790673408</v>
+        <v>0.2039343595633905</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>-0.6184796119883564</v>
+        <v>0.06778626451601902</v>
       </c>
       <c r="B37">
-        <v>-0.3665723908510555</v>
+        <v>-0.7210098713538637</v>
       </c>
       <c r="C37">
-        <v>0.4759395033572169</v>
+        <v>0.01699180402788703</v>
       </c>
       <c r="D37">
-        <v>-1.645339240633092</v>
+        <v>1.670079418287401</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.2657453772695783</v>
+        <v>0.9740264869736348</v>
       </c>
       <c r="B38">
-        <v>0.9427456215588753</v>
+        <v>0.5949225726900502</v>
       </c>
       <c r="C38">
-        <v>-0.2160985742606669</v>
+        <v>0.7841808352559124</v>
       </c>
       <c r="D38">
-        <v>-1.827907069031177</v>
+        <v>0.9044645036850245</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.3577135722197491</v>
+        <v>0.67446224617206</v>
       </c>
       <c r="B39">
-        <v>0.2745932168438393</v>
+        <v>0.9461698056536647</v>
       </c>
       <c r="C39">
-        <v>-1.932752342850694</v>
+        <v>-0.4730165116914396</v>
       </c>
       <c r="D39">
-        <v>0.3953095983768311</v>
+        <v>-1.044807823078606</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.7768683610981734</v>
+        <v>0.9730453790658362</v>
       </c>
       <c r="B40">
-        <v>1.564653934291358</v>
+        <v>0.7779035442012293</v>
       </c>
       <c r="C40">
-        <v>-0.3147339046779226</v>
+        <v>1.163338935100674</v>
       </c>
       <c r="D40">
-        <v>0.3714742984112471</v>
+        <v>-0.7660315148732834</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.6443741272156296</v>
+        <v>1.042261113459622</v>
       </c>
       <c r="B41">
-        <v>-0.07917230683737946</v>
+        <v>0.7751574581757719</v>
       </c>
       <c r="C41">
-        <v>-2.218769721526615</v>
+        <v>-0.5950661066059755</v>
       </c>
       <c r="D41">
-        <v>-0.2195408568933875</v>
+        <v>-0.6339754347015133</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>-2.26968610055861</v>
+        <v>-2.63054372488481</v>
       </c>
       <c r="B42">
-        <v>-0.2367940111823363</v>
+        <v>0.2587231998967833</v>
       </c>
       <c r="C42">
-        <v>0.105439328147007</v>
+        <v>-0.3474649780885567</v>
       </c>
       <c r="D42">
-        <v>1.391776230773331</v>
+        <v>-0.7146291796045777</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1.541791882777978</v>
+        <v>1.126506628918933</v>
       </c>
       <c r="B43">
-        <v>-0.4230958712610783</v>
+        <v>0.6386040476853195</v>
       </c>
       <c r="C43">
-        <v>-1.203722886487989</v>
+        <v>-0.9847083071192985</v>
       </c>
       <c r="D43">
-        <v>0.03782071540257251</v>
+        <v>-0.5241239291820492</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>2.044861962790808</v>
+        <v>1.216921229359418</v>
       </c>
       <c r="B44">
-        <v>-0.1857991676206308</v>
+        <v>0.1612616804439062</v>
       </c>
       <c r="C44">
-        <v>0.5379176863409608</v>
+        <v>-0.5560137787560869</v>
       </c>
       <c r="D44">
-        <v>0.2460303526151269</v>
+        <v>-1.076793812881216</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.8122111276809838</v>
+        <v>-0.03547368752567548</v>
       </c>
       <c r="B45">
-        <v>-0.743463980966967</v>
+        <v>-0.4332639966028464</v>
       </c>
       <c r="C45">
-        <v>0.6390606532261832</v>
+        <v>-0.8970742914462733</v>
       </c>
       <c r="D45">
-        <v>1.363598303797543</v>
+        <v>-0.4633249016444961</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.3804875575808981</v>
+        <v>0.2047413929058971</v>
       </c>
       <c r="B46">
-        <v>-1.06776132856181</v>
+        <v>-1.707425451300757</v>
       </c>
       <c r="C46">
-        <v>0.7682545706451653</v>
+        <v>-0.6772839787717888</v>
       </c>
       <c r="D46">
-        <v>0.5559809652013932</v>
+        <v>-0.7101264799660041</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1.249176640111194</v>
+        <v>0.920925494561691</v>
       </c>
       <c r="B47">
-        <v>-0.1111826641255739</v>
+        <v>0.7663279052345191</v>
       </c>
       <c r="C47">
-        <v>-0.6138030630995985</v>
+        <v>-0.6202353582160869</v>
       </c>
       <c r="D47">
-        <v>-0.09688465731971531</v>
+        <v>0.09222597518273383</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.2109805662118609</v>
+        <v>-0.2333383842703923</v>
       </c>
       <c r="B48">
-        <v>-0.2247601297740944</v>
+        <v>0.8236108101960291</v>
       </c>
       <c r="C48">
-        <v>-0.9326201780488626</v>
+        <v>-0.5959269357200354</v>
       </c>
       <c r="D48">
-        <v>1.067705976263672</v>
+        <v>-0.7259575281550794</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.0638638932420445</v>
+        <v>0.4575602435555766</v>
       </c>
       <c r="B49">
-        <v>-0.3553688918022873</v>
+        <v>-0.8471573745961676</v>
       </c>
       <c r="C49">
-        <v>0.4876638138712423</v>
+        <v>-0.1431545124919402</v>
       </c>
       <c r="D49">
-        <v>-1.006876626482018</v>
+        <v>0.273814270514991</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>-0.710840623507652</v>
+        <v>-0.227072249930219</v>
       </c>
       <c r="B50">
-        <v>-0.6293115730764956</v>
+        <v>0.4246497808681964</v>
       </c>
       <c r="C50">
-        <v>-1.115387712190836</v>
+        <v>-0.4579229984836584</v>
       </c>
       <c r="D50">
-        <v>-1.159218584776226</v>
+        <v>1.050979614902525</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>-0.8393556582358192</v>
+        <v>-0.3902650244933065</v>
       </c>
       <c r="B51">
-        <v>-0.4903933715143905</v>
+        <v>-0.7365236386694566</v>
       </c>
       <c r="C51">
-        <v>0.6256466586493961</v>
+        <v>-0.3879864141659959</v>
       </c>
       <c r="D51">
-        <v>-1.137799281774138</v>
+        <v>1.801533947983273</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>2.379630646579112</v>
+        <v>1.758162570570638</v>
       </c>
       <c r="B52">
-        <v>0.1579186395107126</v>
+        <v>0.8451576661564517</v>
       </c>
       <c r="C52">
-        <v>-0.6442942973449334</v>
+        <v>-0.6752723045963772</v>
       </c>
       <c r="D52">
-        <v>0.08519347123218524</v>
+        <v>-0.7820662442848255</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.9547428549120981</v>
+        <v>0.6114984630558711</v>
       </c>
       <c r="B53">
-        <v>-0.02510177044890672</v>
+        <v>0.8924926378321831</v>
       </c>
       <c r="C53">
-        <v>-1.322150357308521</v>
+        <v>-0.7080372512370776</v>
       </c>
       <c r="D53">
-        <v>0.7002593626819353</v>
+        <v>-1.007702216085213</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>-0.434599796875141</v>
+        <v>-0.5083385679669025</v>
       </c>
       <c r="B54">
-        <v>-0.9097864346655546</v>
+        <v>0.00933751103126435</v>
       </c>
       <c r="C54">
-        <v>-1.318470142984858</v>
+        <v>-0.7621767713331061</v>
       </c>
       <c r="D54">
-        <v>0.5000022351739715</v>
+        <v>-0.908339941483059</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.02759974832332868</v>
+        <v>0.2117461805146447</v>
       </c>
       <c r="B55">
-        <v>2.039339108432341</v>
+        <v>0.5123431238687765</v>
       </c>
       <c r="C55">
-        <v>0.1793423473915262</v>
+        <v>1.795908935448082</v>
       </c>
       <c r="D55">
-        <v>0.7691682048615115</v>
+        <v>-0.6099185194324891</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>-0.5413773440565157</v>
+        <v>-0.4086578074853347</v>
       </c>
       <c r="B56">
-        <v>-0.9855139982527512</v>
+        <v>-2.378025665364222</v>
       </c>
       <c r="C56">
-        <v>1.660320962705558</v>
+        <v>-0.3112551693401868</v>
       </c>
       <c r="D56">
-        <v>0.203389915940586</v>
+        <v>-0.386085991734186</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>-1.551026966504777</v>
+        <v>-1.763062345023217</v>
       </c>
       <c r="B57">
-        <v>-0.2995547098910315</v>
+        <v>-0.05711894383160641</v>
       </c>
       <c r="C57">
-        <v>-0.1500255390968325</v>
+        <v>0.01874131997652303</v>
       </c>
       <c r="D57">
-        <v>1.376550450812949</v>
+        <v>-0.6385111308228896</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>-0.1270099446771869</v>
+        <v>0.6433613928048286</v>
       </c>
       <c r="B58">
-        <v>2.782859507001119</v>
+        <v>0.6825105914818714</v>
       </c>
       <c r="C58">
-        <v>0.3306082936124162</v>
+        <v>3.50326596091284</v>
       </c>
       <c r="D58">
-        <v>-0.8616259531769556</v>
+        <v>-0.1148612951052768</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>-0.003803240843944553</v>
+        <v>1.081698442532596</v>
       </c>
       <c r="B59">
-        <v>0.8675045529096181</v>
+        <v>0.5194639936216877</v>
       </c>
       <c r="C59">
-        <v>-0.03034207134130958</v>
+        <v>0.8535829494203051</v>
       </c>
       <c r="D59">
-        <v>-2.817942757270603</v>
+        <v>1.269358729263868</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>0.00518717195658179</v>
+        <v>-0.289532539282314</v>
       </c>
       <c r="B60">
-        <v>-0.8167339131441607</v>
+        <v>-0.3207173879266077</v>
       </c>
       <c r="C60">
-        <v>0.5381436492362495</v>
+        <v>-0.777696432968902</v>
       </c>
       <c r="D60">
-        <v>-0.7617050992509022</v>
+        <v>2.004355578595052</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.8272489800494818</v>
+        <v>0.9586745226755551</v>
       </c>
       <c r="B61">
-        <v>0.9556138978049379</v>
+        <v>0.8353880849556518</v>
       </c>
       <c r="C61">
-        <v>-0.5469985111432283</v>
+        <v>0.2540991407431468</v>
       </c>
       <c r="D61">
-        <v>0.2110461788321746</v>
+        <v>-0.7584525402931429</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>-0.5925358418611324</v>
+        <v>-0.2634823716114808</v>
       </c>
       <c r="B62">
-        <v>-0.8044359805498124</v>
+        <v>-1.324201855536904</v>
       </c>
       <c r="C62">
-        <v>0.9541634081365014</v>
+        <v>-0.2846295641127292</v>
       </c>
       <c r="D62">
-        <v>-1.13677641791292</v>
+        <v>1.311687088062284</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>-0.4168208512207943</v>
+        <v>-0.2280449923501831</v>
       </c>
       <c r="B63">
-        <v>-0.5958024895617011</v>
+        <v>-0.4475822518601741</v>
       </c>
       <c r="C63">
-        <v>0.6822969861131857</v>
+        <v>-0.1593544206600677</v>
       </c>
       <c r="D63">
-        <v>-0.8849515533415164</v>
+        <v>1.187336542945277</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>1.018365316704887</v>
+        <v>0.6511065484076721</v>
       </c>
       <c r="B64">
-        <v>0.6090880224715254</v>
+        <v>0.5594063268370958</v>
       </c>
       <c r="C64">
-        <v>0.285426301332379</v>
+        <v>0.1581048823475175</v>
       </c>
       <c r="D64">
-        <v>0.1717234955772967</v>
+        <v>-0.3338158677632461</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>-0.3505004717883068</v>
+        <v>-0.159111963326499</v>
       </c>
       <c r="B65">
-        <v>0.4751877796657018</v>
+        <v>-0.2377867050867962</v>
       </c>
       <c r="C65">
-        <v>0.4867153120067606</v>
+        <v>0.7798656215893816</v>
       </c>
       <c r="D65">
-        <v>-0.3394944677653368</v>
+        <v>-0.08931220699078805</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.8864532275718309</v>
+        <v>0.9156973900046</v>
       </c>
       <c r="B66">
-        <v>0.1823457169844978</v>
+        <v>0.855926247414301</v>
       </c>
       <c r="C66">
-        <v>-1.243836169147107</v>
+        <v>-0.4823686489948852</v>
       </c>
       <c r="D66">
-        <v>0.09682681249698816</v>
+        <v>-0.7697769667156179</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>-1.554841950225133</v>
+        <v>-1.706590046282918</v>
       </c>
       <c r="B67">
-        <v>-0.5914640992071469</v>
+        <v>-1.400677041312471</v>
       </c>
       <c r="C67">
-        <v>0.8043701755509671</v>
+        <v>0.1951464860524503</v>
       </c>
       <c r="D67">
-        <v>1.212400612250526</v>
+        <v>-0.7699308342981844</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>-0.6732798301043051</v>
+        <v>-0.5858295217886109</v>
       </c>
       <c r="B68">
-        <v>-0.6312638120483545</v>
+        <v>-0.479648727116606</v>
       </c>
       <c r="C68">
-        <v>0.9807049964672094</v>
+        <v>-0.4326614558794164</v>
       </c>
       <c r="D68">
-        <v>-0.988546728882363</v>
+        <v>1.575767610416816</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>0.7906191285096709</v>
+        <v>0.8322062617495397</v>
       </c>
       <c r="B69">
-        <v>0.511086284252913</v>
+        <v>0.7905121884818265</v>
       </c>
       <c r="C69">
-        <v>-1.298053803501268</v>
+        <v>0.155748616795501</v>
       </c>
       <c r="D69">
-        <v>0.2977168488696449</v>
+        <v>-0.6583248659327743</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>-0.03340825052069057</v>
+        <v>-0.02802453098409907</v>
       </c>
       <c r="B70">
-        <v>-1.088408730496997</v>
+        <v>-1.648034364204678</v>
       </c>
       <c r="C70">
-        <v>0.6654371373749002</v>
+        <v>-0.7182509748101597</v>
       </c>
       <c r="D70">
-        <v>0.5100972165611889</v>
+        <v>-0.0810969634066661</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>-0.6130790106439087</v>
+        <v>-0.6390296412298712</v>
       </c>
       <c r="B71">
-        <v>0.06882288450553867</v>
+        <v>0.7577634158267828</v>
       </c>
       <c r="C71">
-        <v>0.1458825016763191</v>
+        <v>-0.4089641681389489</v>
       </c>
       <c r="D71">
-        <v>0.1797168435424756</v>
+        <v>0.699460120204273</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>-0.2064261756645039</v>
+        <v>-1.507740321075054</v>
       </c>
       <c r="B72">
-        <v>-0.3070069805364938</v>
+        <v>0.8850889605547336</v>
       </c>
       <c r="C72">
-        <v>1.223270757082157</v>
+        <v>-0.3339693768727051</v>
       </c>
       <c r="D72">
-        <v>1.506375254617568</v>
+        <v>-1.013623306927127</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>0.9191333852231111</v>
+        <v>0.8087611663309857</v>
       </c>
       <c r="B73">
-        <v>-0.129927141086621</v>
+        <v>0.5542605623562676</v>
       </c>
       <c r="C73">
-        <v>-0.9624480270107882</v>
+        <v>-0.6341401336263892</v>
       </c>
       <c r="D73">
-        <v>0.05292464624665942</v>
+        <v>-0.09569224323519922</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>0.718841825040177</v>
+        <v>0.6747781813325359</v>
       </c>
       <c r="B74">
-        <v>-0.1112437670739509</v>
+        <v>0.2534030837698624</v>
       </c>
       <c r="C74">
-        <v>-0.8161165918618373</v>
+        <v>-0.464376870108728</v>
       </c>
       <c r="D74">
-        <v>0.2192987071014537</v>
+        <v>-0.2732341658657149</v>
       </c>
     </row>
   </sheetData>
